--- a/descripcion_variables.xlsx
+++ b/descripcion_variables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maestría_CP\Tesis\Articulo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maestria\Articulo-GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A7BEDF-7442-4D98-AE6F-46B648F2C43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7134363-DD1B-4E03-B8E8-BB2599C9261C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E4C2C5B9-4872-4BE4-8E23-B348F04483C6}"/>
   </bookViews>
@@ -1227,18 +1227,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1575,9 +1574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD04722A-8697-49A8-A893-68B7FA1DC17C}">
   <dimension ref="A1:D308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5114,8 +5111,6 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301" s="5"/>
-      <c r="B301" s="5"/>
       <c r="C301" s="3">
         <v>1</v>
       </c>
@@ -5133,10 +5128,9 @@
       <c r="C302" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D302" s="5"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303" s="6" t="s">
+      <c r="A303" s="5" t="s">
         <v>376</v>
       </c>
       <c r="B303" s="2"/>
